--- a/TEMPLATES/integracao.xlsx
+++ b/TEMPLATES/integracao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\automatizar_descritivo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\nova_pasta_descritivo\TEMPLATES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E709983A-D6AB-4086-AEC6-D5CA4A7B8A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCE0BE2-68F5-4B4F-9D70-4BC127538CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -36,56 +36,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="162">
   <si>
     <t>proponente</t>
   </si>
   <si>
-    <t>marco antonio feitosa</t>
-  </si>
-  <si>
     <t>agencia</t>
   </si>
   <si>
-    <t>ua porto nacional (14)</t>
-  </si>
-  <si>
     <t>cpf/cnpj</t>
   </si>
   <si>
     <t>municipio da agencia</t>
   </si>
   <si>
-    <t>porto nacional - TO</t>
-  </si>
-  <si>
     <t>data de solicitação</t>
   </si>
   <si>
     <t>propietario</t>
   </si>
   <si>
-    <t>miguel phelipe feitosa</t>
-  </si>
-  <si>
     <t>municipio do cartorio</t>
   </si>
   <si>
-    <t>palmas - to</t>
-  </si>
-  <si>
-    <t>713.254.791-79</t>
-  </si>
-  <si>
     <t>data de emissão do cartorio</t>
   </si>
   <si>
     <t>nome do imovel</t>
   </si>
   <si>
-    <t>fazenda rancho diamante</t>
-  </si>
-  <si>
     <t>data da vistoria</t>
   </si>
   <si>
@@ -101,9 +80,6 @@
     <t>identificação</t>
   </si>
   <si>
-    <t>fazenda</t>
-  </si>
-  <si>
     <t>não</t>
   </si>
   <si>
@@ -125,9 +101,6 @@
     <t>car</t>
   </si>
   <si>
-    <t>TO-1718204-E7A1.2B1B.6B15.4E03.89DD.7006.7298.400E</t>
-  </si>
-  <si>
     <t>area1</t>
   </si>
   <si>
@@ -155,9 +128,6 @@
     <t>bacia</t>
   </si>
   <si>
-    <t>Rio tocantins</t>
-  </si>
-  <si>
     <t>sub-bacia</t>
   </si>
   <si>
@@ -398,9 +368,6 @@
     <t>A - (declive igual ou inferior a 5 %)</t>
   </si>
   <si>
-    <t>fazenda rio sono</t>
-  </si>
-  <si>
     <t>nome imovel</t>
   </si>
   <si>
@@ -530,12 +497,6 @@
     <t>% do imovel</t>
   </si>
   <si>
-    <t>linda</t>
-  </si>
-  <si>
-    <t>811.415.192-90</t>
-  </si>
-  <si>
     <t>casado</t>
   </si>
   <si>
@@ -552,9 +513,6 @@
   </si>
   <si>
     <t>tabela de cônjuges</t>
-  </si>
-  <si>
-    <t>iasudh9012h9</t>
   </si>
   <si>
     <t>CAR e GEO</t>
@@ -956,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1093,6 +1051,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1377,8 +1336,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,188 +1356,140 @@
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="1"/>
       <c r="E2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="1"/>
       <c r="E3" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="1"/>
       <c r="E4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="7">
-        <v>38323</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C5" s="10"/>
       <c r="E5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>11</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F5" s="49"/>
     </row>
     <row r="6" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C6" s="49"/>
       <c r="E6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4">
-        <v>43822</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="52"/>
     </row>
     <row r="8" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="E8" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="4">
-        <v>42911</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1456.6547</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="E9" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>25</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="E10" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>36</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1234.5123000000001</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="E11" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>110</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="53">
-        <v>300</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C12" s="53"/>
       <c r="E12" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F12" s="48"/>
     </row>
     <row r="13" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>165</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14"/>
     </row>
     <row r="15" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>172</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5">
-        <v>100.5205</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="5">
-        <v>321.56479999999999</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1586,51 +1497,39 @@
     </row>
     <row r="21" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="5">
-        <v>12307037</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>173</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C23" s="28"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>22</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -1691,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,87 +1614,93 @@
     <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M2" s="73" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="N2" s="74" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="O2" s="74" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="str">
+      <c r="A3" s="49">
         <f>dados!F9</f>
-        <v>Sr.</v>
+        <v>0</v>
       </c>
       <c r="B3" s="64">
         <f>dados!C6</f>
         <v>0</v>
       </c>
-      <c r="C3" s="49" t="str">
+      <c r="C3" s="49">
         <f>dados!C4</f>
-        <v>miguel phelipe feitosa</v>
-      </c>
-      <c r="D3" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="D3" s="65">
         <f>dados!C5</f>
-        <v>713.254.791-79</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="49">
+        <f>dados!F10</f>
+        <v>0</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G3" s="49">
-        <v>1456.6547</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>21</v>
+        <f>dados!C9</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="49">
+        <f>dados!C10</f>
+        <v>0</v>
       </c>
       <c r="I3" s="49">
-        <v>1234.5123000000001</v>
-      </c>
-      <c r="J3" s="49">
-        <v>156.65</v>
-      </c>
-      <c r="M3" s="49" t="s">
-        <v>120</v>
+        <f>dados!C11</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="84">
+        <f>dados!C12</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="49">
+        <f>dados!C8</f>
+        <v>0</v>
       </c>
       <c r="N3" s="4">
         <f>dados!F6</f>
-        <v>43822</v>
-      </c>
-      <c r="O3" s="49" t="str">
+        <v>0</v>
+      </c>
+      <c r="O3" s="49">
         <f>dados!C15</f>
-        <v>TO-1718204-E7A1.2B1B.6B15.4E03.89DD.7006.7298.400E</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1805,23 +1710,13 @@
       <c r="D4" s="66"/>
       <c r="E4" s="49"/>
       <c r="F4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="49">
-        <v>1456.6547</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="49">
-        <v>1234.5123000000001</v>
-      </c>
-      <c r="J4" s="49">
-        <v>156.65</v>
-      </c>
-      <c r="M4" s="49" t="s">
-        <v>120</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="49"/>
       <c r="O4" s="49"/>
     </row>
@@ -1832,23 +1727,13 @@
       <c r="D5" s="42"/>
       <c r="E5" s="49"/>
       <c r="F5" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="49">
-        <v>1456.6547</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="49">
-        <v>1234.5123000000001</v>
-      </c>
-      <c r="J5" s="49">
-        <v>156.65</v>
-      </c>
-      <c r="M5" s="49" t="s">
-        <v>120</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="M5" s="49"/>
       <c r="N5" s="49"/>
       <c r="O5" s="49"/>
     </row>
@@ -1859,7 +1744,7 @@
       <c r="D6" s="42"/>
       <c r="E6" s="49"/>
       <c r="F6" s="47" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
@@ -1876,7 +1761,7 @@
       <c r="D7" s="42"/>
       <c r="E7" s="49"/>
       <c r="F7" s="47" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
@@ -1893,7 +1778,7 @@
       <c r="D8" s="42"/>
       <c r="E8" s="49"/>
       <c r="F8" s="47" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
@@ -1909,7 +1794,7 @@
       <c r="D9" s="42"/>
       <c r="E9" s="49"/>
       <c r="F9" s="47" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G9" s="49"/>
       <c r="H9" s="49"/>
@@ -1926,7 +1811,7 @@
       <c r="D10" s="42"/>
       <c r="E10" s="49"/>
       <c r="F10" s="47" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="49"/>
@@ -1943,7 +1828,7 @@
       <c r="D11" s="42"/>
       <c r="E11" s="49"/>
       <c r="F11" s="47" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="49"/>
@@ -1960,7 +1845,7 @@
       <c r="D12" s="42"/>
       <c r="E12" s="49"/>
       <c r="F12" s="47" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="49"/>
@@ -1972,38 +1857,38 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="75" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C13" s="76"/>
       <c r="D13" s="77"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="69" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N14" s="78" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="O14" s="79"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="49" t="str">
+      <c r="B15" s="49">
         <f>dados!F11</f>
-        <v>Sra.</v>
-      </c>
-      <c r="C15" s="49" t="str">
+        <v>0</v>
+      </c>
+      <c r="C15" s="49">
         <f>dados!F12</f>
-        <v>linda</v>
-      </c>
-      <c r="D15" s="49" t="str">
+        <v>0</v>
+      </c>
+      <c r="D15" s="49">
         <f>dados!F13</f>
-        <v>811.415.192-90</v>
+        <v>0</v>
       </c>
       <c r="N15" s="80"/>
       <c r="O15" s="81"/>
@@ -2080,7 +1965,7 @@
           <x14:formula1>
             <xm:f>respostas!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E12</xm:sqref>
+          <xm:sqref>E4:E12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2092,240 +1977,240 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="61" style="52" customWidth="1"/>
-    <col min="3" max="3" width="90.85546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="92.42578125" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="49" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="15" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="16" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="15" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2346,162 +2231,162 @@
     <row r="38" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="54"/>
       <c r="B38" s="15" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C39" s="57" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="58" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C40" s="57" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="58" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="59" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="58" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="59" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="59" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="59" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="59" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="58" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="58" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="59" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="59" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="59" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C52" s="57" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="59" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C53" s="61" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="59" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C54" s="60" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="59" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C55" s="60" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="59" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C56" s="57" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="58" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C57" s="49" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2527,55 +2412,55 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E3" s="62"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -2583,7 +2468,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
@@ -2592,7 +2477,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B6" s="72"/>
       <c r="E6" s="62"/>
